--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inventarioInformatico\stock\stockBackend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F348857-5EFD-4635-99BC-883C2DAE4D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BD3D6B-C06E-470B-9A3D-00E90218F5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>${people.name}</t>
+    <t>${name}</t>
   </si>
 </sst>
 </file>

--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inventarioInformatico\stock\stockBackend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BD3D6B-C06E-470B-9A3D-00E90218F5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A2FC1-06BD-4AB4-B3DB-F98A7975F3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>${name}</t>
+    <t>${table:people.name}</t>
   </si>
 </sst>
 </file>

--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -8,33 +8,145 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inventarioInformatico\stock\stockBackend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A2FC1-06BD-4AB4-B3DB-F98A7975F3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B4E14-8B21-4206-8792-0D900B0BFA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>${table:people.name}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+  <si>
+    <t xml:space="preserve"> MEMO N°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Numero de ticket :</t>
+  </si>
+  <si>
+    <t>Junta Nacional de Jardines Infantiles - JUNJI</t>
+  </si>
+  <si>
+    <t>Gregorio Cordovez #535</t>
+  </si>
+  <si>
+    <t>La Serena, Chile</t>
+  </si>
+  <si>
+    <t>Fono : (56 51) 256 3300</t>
+  </si>
+  <si>
+    <t>Datos de la persona a cargo</t>
+  </si>
+  <si>
+    <t>Nombre Jardin</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Código de Jardin</t>
+  </si>
+  <si>
+    <t>Referencia</t>
+  </si>
+  <si>
+    <t>Comuna</t>
+  </si>
+  <si>
+    <t>Insumos</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Observacion</t>
+  </si>
+  <si>
+    <t>LA UNIDAD PETICIONARIA ES LA RESPONSABLE DEL BUEN USO DEL INSUMO. TODO USO INDEBIDO DEL INSUMO ESTARA BAJO SUPERVISION DEL JEFE DE LA UNIDAD CON LA RESPONSABILIDAD CORRESPONDIENTE.</t>
+  </si>
+  <si>
+    <t>CONDICIONES DEL BIEN :</t>
+  </si>
+  <si>
+    <t>* De acuerdo a la información suministrada por el usuario mediante este documento, se entregará el insumo requerido.</t>
+  </si>
+  <si>
+    <t>* El insumo desde este momento queda bajo la responsabilidad del usuario o persona que firma este documento.</t>
+  </si>
+  <si>
+    <t>DIA Y HORA DE ENTREGA</t>
+  </si>
+  <si>
+    <t>FIRMA RESPONSABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDAD DE TECNOLOGIAS DE INFORMACION </t>
+  </si>
+  <si>
+    <t>REGION COQUIMBO</t>
+  </si>
+  <si>
+    <t>${table:productos.nomProducto}</t>
+  </si>
+  <si>
+    <t>${table:productos.cantidad}</t>
+  </si>
+  <si>
+    <t>${table:productos.marca}</t>
+  </si>
+  <si>
+    <t>${codDependencia}</t>
+  </si>
+  <si>
+    <t>${comuna}</t>
+  </si>
+  <si>
+    <t>${dependencia}</t>
+  </si>
+  <si>
+    <t>${table:productos.vacio}</t>
+  </si>
+  <si>
+    <t>${fecha}</t>
+  </si>
+  <si>
+    <t>${table:productos.descripcion}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +154,144 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -59,23 +299,871 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000080"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000080"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF003366"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000080"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000080"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -86,6 +1174,175 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2428875" cy="1295400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA83B58E-F158-4DD0-B2CA-508E0608D2CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="57150"/>
+          <a:ext cx="2428875" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1809750" cy="1905000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="image3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E50F2B-9457-47D5-9DA5-4AF79B198DD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="7677150"/>
+          <a:ext cx="1809750" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1333500" cy="390525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="image5.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2635265F-4410-4D94-BADF-397E606D9577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="10296525"/>
+          <a:ext cx="1333500" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6460EA2-5432-4C4A-91FF-3E1F04BAB012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743451" y="7772400"/>
+          <a:ext cx="2362200" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,33 +1608,1103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:K14"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" customWidth="1"/>
+    <col min="16" max="16" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="1" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="81" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J14" s="2"/>
-      <c r="K14" s="1"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="9">
+        <v>16</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="83"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="80"/>
+      <c r="K23" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70"/>
+      <c r="B24" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42"/>
+      <c r="B39" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="97"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="45"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="54"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="54"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="54"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="59"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="54"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="59"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="59"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="59"/>
+    </row>
+    <row r="51" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="63"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="121"/>
+      <c r="K52" s="121"/>
+      <c r="L52" s="121"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="59"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="64"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" s="95"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="66"/>
     </row>
   </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B27:O31"/>
+    <mergeCell ref="B34:O34"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="B35:O35"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:O23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L10:O10">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(L10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inventarioInformatico\stock\stockBackend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B4E14-8B21-4206-8792-0D900B0BFA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E954A6E1-0CEE-44DF-BDD1-E9EA54B97D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
-  <si>
-    <t xml:space="preserve"> MEMO N°</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -140,6 +137,15 @@
   </si>
   <si>
     <t>${table:productos.descripcion}</t>
+  </si>
+  <si>
+    <t>${referencia}</t>
+  </si>
+  <si>
+    <t>${ticket}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MEMO N° ${memo}</t>
   </si>
 </sst>
 </file>
@@ -170,13 +176,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -270,6 +269,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -878,50 +884,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -932,53 +935,53 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -994,19 +997,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,139 +1018,142 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1610,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,21 +1754,19 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="9">
-        <v>16</v>
-      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="10"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -1774,31 +1778,33 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="10"/>
+      <c r="L8" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
-      <c r="B9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1808,34 +1814,34 @@
     </row>
     <row r="10" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="88"/>
+      <c r="L10" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="86"/>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1850,26 +1856,26 @@
     </row>
     <row r="12" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1891,127 +1897,129 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24"/>
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27" t="s">
+      <c r="E17" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="92" t="s">
-        <v>29</v>
+      <c r="L17" s="91" t="s">
+        <v>28</v>
       </c>
       <c r="M17" s="76"/>
       <c r="N17" s="76"/>
-      <c r="O17" s="93"/>
+      <c r="O17" s="92"/>
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="75"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>34</v>
+      </c>
       <c r="F18" s="76"/>
       <c r="G18" s="76"/>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
-      <c r="J18" s="28" t="s">
-        <v>12</v>
+      <c r="J18" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="K18" s="77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" s="76"/>
       <c r="M18" s="76"/>
       <c r="N18" s="76"/>
       <c r="O18" s="78"/>
-      <c r="P18" s="32"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="37"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="36"/>
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2024,7 +2032,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="18"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -2052,8 +2060,8 @@
     </row>
     <row r="22" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="38" t="s">
-        <v>13</v>
+      <c r="B22" s="37" t="s">
+        <v>12</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2071,12 +2079,12 @@
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="79" t="s">
         <v>14</v>
-      </c>
-      <c r="C23" s="79" t="s">
-        <v>15</v>
       </c>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
@@ -2084,25 +2092,25 @@
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
       <c r="I23" s="79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" s="80"/>
       <c r="K23" s="79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" s="80"/>
       <c r="M23" s="80"/>
       <c r="N23" s="80"/>
       <c r="O23" s="80"/>
-      <c r="P23" s="32"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="72" t="s">
-        <v>27</v>
+      <c r="A24" s="69"/>
+      <c r="B24" s="71" t="s">
+        <v>26</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="73"/>
       <c r="E24" s="73"/>
@@ -2110,23 +2118,23 @@
       <c r="G24" s="73"/>
       <c r="H24" s="73"/>
       <c r="I24" s="74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" s="73"/>
       <c r="K24" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" s="73"/>
       <c r="M24" s="73"/>
       <c r="N24" s="73"/>
       <c r="O24" s="73"/>
-      <c r="P24" s="71" t="s">
-        <v>32</v>
+      <c r="P24" s="70" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="69"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="103"/>
       <c r="D25" s="104"/>
       <c r="E25" s="104"/>
@@ -2143,8 +2151,8 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="122"/>
       <c r="D26" s="123"/>
       <c r="E26" s="123"/>
@@ -2161,9 +2169,9 @@
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="109"/>
       <c r="D27" s="109"/>
@@ -2181,7 +2189,7 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="111"/>
       <c r="C28" s="112"/>
       <c r="D28" s="112"/>
@@ -2199,7 +2207,7 @@
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="111"/>
       <c r="C29" s="112"/>
       <c r="D29" s="112"/>
@@ -2217,7 +2225,7 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="111"/>
       <c r="C30" s="112"/>
       <c r="D30" s="112"/>
@@ -2235,7 +2243,7 @@
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="114"/>
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
@@ -2253,9 +2261,9 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40" t="s">
-        <v>19</v>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39" t="s">
+        <v>18</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2273,7 +2281,7 @@
       <c r="P32" s="6"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2293,7 +2301,7 @@
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="118"/>
       <c r="D34" s="118"/>
@@ -2313,7 +2321,7 @@
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="118"/>
       <c r="D35" s="118"/>
@@ -2331,340 +2339,351 @@
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
       <c r="P36" s="6"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="96"/>
       <c r="C38" s="96"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
       <c r="P38" s="6"/>
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="97"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="98" t="s">
         <v>22</v>
-      </c>
-      <c r="C39" s="97"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="98" t="s">
-        <v>23</v>
       </c>
       <c r="G39" s="99"/>
       <c r="H39" s="99"/>
       <c r="I39" s="99"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="L40" s="45"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="44"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
       <c r="P40" s="6"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="6"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="100"/>
       <c r="C43" s="96"/>
       <c r="D43" s="101"/>
-      <c r="E43" s="82"/>
+      <c r="E43" s="88"/>
       <c r="F43" s="102"/>
       <c r="G43" s="102"/>
       <c r="H43" s="102"/>
       <c r="I43" s="102"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="44"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="43"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
       <c r="P44" s="6"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
       <c r="P46" s="6"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="58"/>
-      <c r="P47" s="59"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="58"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="59"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="58"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="58"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="59"/>
+      <c r="B50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="58"/>
     </row>
     <row r="51" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="63"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="62"/>
     </row>
     <row r="52" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="44"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="119"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
       <c r="I52" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J52" s="121"/>
       <c r="K52" s="121"/>
       <c r="L52" s="121"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="59"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="58"/>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
       <c r="I53" s="94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J53" s="95"/>
       <c r="K53" s="95"/>
       <c r="L53" s="95"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="66"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="B27:O31"/>
@@ -2673,17 +2692,6 @@
     <mergeCell ref="I52:L52"/>
     <mergeCell ref="B35:O35"/>
     <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F7:I7"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L10:O10"/>
     <mergeCell ref="L12:O12"/>

--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inventarioInformatico\stock\stockBackend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E954A6E1-0CEE-44DF-BDD1-E9EA54B97D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3662FD39-C9BB-471E-AEC8-8BF2F8F57261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,24 +1024,97 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,7 +1128,6 @@
     <xf numFmtId="20" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1065,97 +1137,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1298,56 +1298,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6460EA2-5432-4C4A-91FF-3E1F04BAB012}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4743451" y="7772400"/>
-          <a:ext cx="2362200" cy="1771650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1616,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:O8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,11 +1705,11 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
       <c r="J7" s="72"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -1784,12 +1734,12 @@
       <c r="K8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="83"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="108"/>
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1826,12 +1776,12 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="84" t="s">
+      <c r="L10" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="86"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="111"/>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,10 +1818,10 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1957,23 +1907,23 @@
       <c r="D17" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="89" t="s">
+      <c r="E17" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
       <c r="K17" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="91" t="s">
+      <c r="L17" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="92"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="117"/>
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1985,23 +1935,23 @@
       <c r="D18" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
       <c r="J18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="77" t="s">
+      <c r="K18" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="78"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="122"/>
       <c r="P18" s="31"/>
     </row>
     <row r="19" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2083,25 +2033,25 @@
       <c r="B23" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="79" t="s">
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="80"/>
-      <c r="K23" s="79" t="s">
+      <c r="J23" s="124"/>
+      <c r="K23" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
       <c r="P23" s="31"/>
     </row>
     <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2109,25 +2059,25 @@
       <c r="B24" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74" t="s">
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74" t="s">
+      <c r="J24" s="118"/>
+      <c r="K24" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
       <c r="P24" s="70" t="s">
         <v>31</v>
       </c>
@@ -2135,129 +2085,129 @@
     <row r="25" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="68"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="107"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="77"/>
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="66"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="110"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="94"/>
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="113"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="97"/>
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="113"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="97"/>
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="113"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="97"/>
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="115"/>
-      <c r="O31" s="116"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="100"/>
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2300,42 +2250,42 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="118"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
       <c r="P34" s="6"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="102"/>
+      <c r="N35" s="102"/>
+      <c r="O35" s="102"/>
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -2376,8 +2326,8 @@
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="41"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
@@ -2394,18 +2344,18 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41"/>
-      <c r="B39" s="96" t="s">
+      <c r="B39" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="97"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="45"/>
       <c r="E39" s="46"/>
-      <c r="F39" s="98" t="s">
+      <c r="F39" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
       <c r="J39" s="47"/>
       <c r="K39" s="47"/>
       <c r="L39" s="47"/>
@@ -2474,14 +2424,14 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
       <c r="J43" s="42"/>
       <c r="K43" s="42"/>
       <c r="L43" s="43"/>
@@ -2634,18 +2584,18 @@
     <row r="52" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="43"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
       <c r="H52" s="43"/>
-      <c r="I52" s="120" t="s">
+      <c r="I52" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="J52" s="121"/>
-      <c r="K52" s="121"/>
-      <c r="L52" s="121"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
       <c r="M52" s="61"/>
       <c r="N52" s="43"/>
       <c r="O52" s="43"/>
@@ -2660,12 +2610,12 @@
       <c r="F53" s="64"/>
       <c r="G53" s="64"/>
       <c r="H53" s="64"/>
-      <c r="I53" s="94" t="s">
+      <c r="I53" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="95"/>
-      <c r="K53" s="95"/>
-      <c r="L53" s="95"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
       <c r="M53" s="64"/>
       <c r="N53" s="64"/>
       <c r="O53" s="64"/>
@@ -2673,17 +2623,27 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:O23"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="F39:I39"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="I53:L53"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="B27:O31"/>
@@ -2695,16 +2655,6 @@
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L10:O10"/>
     <mergeCell ref="L12:O12"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:O23"/>
   </mergeCells>
   <conditionalFormatting sqref="L10:O10">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
